--- a/Data/RuleTypeValidation_SK_REG - COMPLETE.xlsx
+++ b/Data/RuleTypeValidation_SK_REG - COMPLETE.xlsx
@@ -4,20 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="1884" windowWidth="16404" windowHeight="9420"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase">Sheet1!$I$1:$I$101</definedName>
-  </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="41">
   <si>
     <t>EmpNum</t>
   </si>
@@ -79,13 +76,13 @@
     <t>2 shifts, which is more than the daily maximum of 1 shifts.</t>
   </si>
   <si>
+    <t>Failed</t>
+  </si>
+  <si>
     <t>10649103</t>
   </si>
   <si>
-    <t>The maximum amount of hours has been exceeded. Period 01/04/2025 - 30/04/2025, amount of hours: 147:15, evaluated hours: 147:16</t>
-  </si>
-  <si>
-    <t>Failed</t>
+    <t>The maximum amount of hours has been exceeded. Period: 01/04/2025 - 30/04/2025, amount of hours: 147:15, evaluated hours: 147:16.</t>
   </si>
   <si>
     <t>Scheduled for a 8:16-hour shift starting at 01/04/2025 09:00; this is longer than the maximum 8:15 hours allowed.</t>
@@ -125,6 +122,21 @@
   </si>
   <si>
     <t>this is longer than the maximum 8:15 hours allowed.</t>
+  </si>
+  <si>
+    <t>The minimum amount of hours has not been met.</t>
+  </si>
+  <si>
+    <t>The period does not meet the minimum amount of rest</t>
+  </si>
+  <si>
+    <t>10649106</t>
+  </si>
+  <si>
+    <t>10648787</t>
+  </si>
+  <si>
+    <t>The maximum amount of hours has been exceeded.</t>
   </si>
 </sst>
 </file>
@@ -202,49 +214,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009900"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -542,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
@@ -600,11 +570,11 @@
       <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="14.4" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -627,7 +597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" ht="21" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" ht="14.4" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -650,7 +620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" ht="28.8" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" ht="14.4" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -673,7 +643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="14.4" customHeight="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="14.4" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -692,11 +662,11 @@
       <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="14.4" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -716,36 +686,35 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" ht="28.8" customHeight="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" ht="14.4" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -766,9 +735,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" ht="14.4" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -789,7 +758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" ht="23.25" customHeight="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>25</v>
       </c>
@@ -799,10 +768,10 @@
       <c r="C11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
@@ -811,9 +780,8 @@
       <c r="G11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" ht="20.25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
@@ -836,7 +804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" ht="21.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
@@ -859,7 +827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" ht="24" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>25</v>
       </c>
@@ -951,7 +919,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" ht="21" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>25</v>
       </c>
@@ -974,7 +942,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" ht="21" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>25</v>
       </c>
@@ -997,550 +965,176 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" ht="15.6" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" ht="15.6" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" ht="15.6" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" ht="15.6" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" ht="15.6" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" ht="15.6" customHeight="1" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" ht="15.6" customHeight="1" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" ht="15.6" customHeight="1" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" ht="15.6" customHeight="1" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" ht="15.6" customHeight="1" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" ht="15.6" customHeight="1" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="5"/>
-      <c r="H33" s="5"/>
-    </row>
-    <row r="34" ht="15.6" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" ht="15.6" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="7"/>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" ht="15.6" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" ht="15.6" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" ht="15.6" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" ht="15.6" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" ht="15.6" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" ht="15.6" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" ht="15.6" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" ht="15.6" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" ht="15.6" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-    </row>
-    <row r="46" ht="15.6" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="7"/>
-      <c r="H47" s="5"/>
-    </row>
-    <row r="48" ht="15.6" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" ht="15.6" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="5"/>
-      <c r="H50" s="5"/>
-    </row>
-    <row r="51" ht="15.6" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-    </row>
-    <row r="52" ht="15.6" customHeight="1" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-    </row>
-    <row r="53" ht="15.6" customHeight="1" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-    </row>
-    <row r="54" ht="15.6" customHeight="1" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-    </row>
-    <row r="55" ht="15.6" customHeight="1" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-    </row>
-    <row r="56" ht="15.6" customHeight="1" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="H56" s="5"/>
-    </row>
-    <row r="57" ht="15.6" customHeight="1" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-    </row>
-    <row r="58" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="5"/>
-      <c r="H58" s="5"/>
-    </row>
-    <row r="59" ht="15.6" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-    </row>
-    <row r="60" ht="15.6" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-    </row>
-    <row r="61" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="7"/>
-      <c r="H61" s="5"/>
-    </row>
-    <row r="62" ht="15.6" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-    </row>
-    <row r="63" ht="15.6" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-    </row>
-    <row r="64" ht="15.6" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-    </row>
-    <row r="65" ht="15.6" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-    </row>
-    <row r="66" ht="15.6" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-    </row>
-    <row r="67" ht="15.6" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-    </row>
-    <row r="68" ht="15.6" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="5"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-    </row>
-    <row r="69" ht="15.6" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="5"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-    </row>
-    <row r="70" ht="15.6" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-    </row>
-    <row r="71" ht="15.6" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-    </row>
-    <row r="72" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="7"/>
-      <c r="H72" s="5"/>
-    </row>
-    <row r="73" ht="15.6" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="5"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-    </row>
-    <row r="74" ht="15.6" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="5"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-    </row>
-    <row r="75" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="5"/>
-      <c r="H75" s="5"/>
-    </row>
-    <row r="76" ht="15.6" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-    </row>
-    <row r="77" ht="15.6" customHeight="1" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-    </row>
-    <row r="78" ht="15.6" customHeight="1" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-    </row>
-    <row r="79" ht="15.6" customHeight="1" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-    </row>
-    <row r="80" ht="15.6" customHeight="1" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-    </row>
-    <row r="81" ht="15.6" customHeight="1" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="H81" s="5"/>
-    </row>
-    <row r="82" ht="15.6" customHeight="1" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-    </row>
-    <row r="83" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="5"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="5"/>
-      <c r="H83" s="5"/>
-    </row>
-    <row r="84" ht="15.6" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="5"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-    </row>
-    <row r="85" ht="15.6" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="5"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-    </row>
-    <row r="86" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="7"/>
-      <c r="H86" s="5"/>
-    </row>
-    <row r="87" ht="15.6" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="5"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-    </row>
-    <row r="88" ht="15.6" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="5"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-    </row>
-    <row r="89" ht="15.6" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="5"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-    </row>
-    <row r="90" ht="15.6" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="5"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-    </row>
-    <row r="91" ht="15.6" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="5"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-    </row>
-    <row r="92" ht="15.6" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="5"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-    </row>
-    <row r="93" ht="15.6" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="5"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-    </row>
-    <row r="94" ht="15.6" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="5"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-    </row>
-    <row r="95" ht="15.6" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="5"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-    </row>
-    <row r="96" ht="15.6" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="5"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-    </row>
-    <row r="97" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="7"/>
-      <c r="H97" s="5"/>
-    </row>
-    <row r="98" ht="15.6" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="5"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-    </row>
-    <row r="99" ht="15.6" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="5"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-    </row>
-    <row r="100" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="5"/>
-      <c r="H100" s="5"/>
-    </row>
-    <row r="101" ht="15.6" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="5"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
+    <row r="20" ht="21" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" customHeight="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" ht="14.4" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" ht="14.4" customHeight="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" ht="14.4" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G1 G27:G1048576">
-    <cfRule type="cellIs" dxfId="0" priority="25" operator="equal">
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="20" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="27" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H101">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G26">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="21" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
